--- a/面料属性.xlsx
+++ b/面料属性.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="160" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="8475" yWindow="165" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="面料用途" sheetId="1" r:id="rId1"/>
@@ -556,79 +556,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>起毛／起绒布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网眼布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汗布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛巾布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇粒布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫衣布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针织缎纹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛圈布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他针织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纺布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水刺无纺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针刺无纺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔喷无纺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热轧无纺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺粘无纺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他无纺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝织布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝织布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>蕾丝／网布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起毛／起绒布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网眼布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汗布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛巾布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摇粒布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫衣布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针织缎纹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛圈布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他针织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无纺布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水刺无纺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针刺无纺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔喷无纺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热轧无纺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纺粘无纺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他无纺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝织布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝织布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,9 +690,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -702,12 +699,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1039,134 +1044,134 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1190,159 +1195,159 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1366,383 +1371,383 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2"/>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2"/>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2"/>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2"/>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2"/>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2"/>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
       <c r="B36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2"/>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
       <c r="B37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2"/>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
       <c r="B38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2"/>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
       <c r="B39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2"/>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2"/>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2"/>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
       <c r="B42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2"/>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
       <c r="B44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2"/>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
       <c r="B45" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2"/>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2"/>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2"/>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
       <c r="B48" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2"/>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
       <c r="B50" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2"/>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
       <c r="B51" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2"/>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
       <c r="B52" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2"/>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2"/>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
       <c r="B54" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2"/>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
       <c r="B56" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2"/>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
       <c r="B57" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2"/>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="6"/>
       <c r="B58" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2"/>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="6"/>
       <c r="B59" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2"/>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="6"/>
       <c r="B60" t="s">
         <v>122</v>
       </c>
@@ -1772,161 +1777,161 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
-      <c r="B12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2"/>
-      <c r="B14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2"/>
-      <c r="B16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="B17" t="s">
         <v>143</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
-      <c r="B18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
-      <c r="B19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2"/>
-      <c r="B20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
-      <c r="B21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2"/>
-      <c r="B22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
+      <c r="B23" t="s">
         <v>150</v>
-      </c>
-      <c r="B23" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
